--- a/senario/senario.xlsx
+++ b/senario/senario.xlsx
@@ -7,7 +7,15 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="baibai" sheetId="9" r:id="rId1"/>
+    <sheet name="kaikei" sheetId="8" r:id="rId2"/>
+    <sheet name="kansou" sheetId="7" r:id="rId3"/>
+    <sheet name="hoi" sheetId="6" r:id="rId4"/>
+    <sheet name="chuumon" sheetId="5" r:id="rId5"/>
+    <sheet name="osusume" sheetId="4" r:id="rId6"/>
+    <sheet name="hello" sheetId="3" r:id="rId7"/>
+    <sheet name="survey2.csv" sheetId="2" r:id="rId8"/>
+    <sheet name="survey.csv" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>no</t>
   </si>
@@ -121,6 +129,151 @@
   </si>
   <si>
     <t>mouse_mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらっしゃいませ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕の名前はパペートです。</t>
+    <rPh sb="0" eb="2">
+      <t>ボk</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よろしく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パペートです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日は、ハンバーグセットがおすすめだよ</t>
+    <rPh sb="0" eb="4">
+      <t>キョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザートのティラミスもとても上手くできたんだって。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーによく合うよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばらくお待ち下さい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かしこまりました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーズカレーセットでウーロン茶ですね。</t>
+    <rPh sb="14" eb="15">
+      <t>ch</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーグセットでホットコーヒーと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けませんよ</t>
+    <rPh sb="0" eb="6">
+      <t>マk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あっち向いて</t>
+    <rPh sb="3" eb="6">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェフが感想を聞きたいんだって。</t>
+    <rPh sb="4" eb="7">
+      <t>カンソ</t>
+    </rPh>
+    <rPh sb="7" eb="16">
+      <t>キk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーグセットどうだった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トマトだね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝えておくよ</t>
+    <rPh sb="0" eb="6">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ですね</t>
+    <rPh sb="1" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承知致しました</t>
+    <rPh sb="0" eb="2">
+      <t>ショウt</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>イタシマシt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕を持ってレジまでお進みください。</t>
+    <rPh sb="0" eb="1">
+      <t>ボk</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モッt</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ススm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイバーイ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -180,8 +333,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,7 +441,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="103">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -259,6 +466,33 @@
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -284,6 +518,33 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -612,9 +873,1765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/senario/senario.xlsx
+++ b/senario/senario.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="baibai" sheetId="9" r:id="rId1"/>
-    <sheet name="kaikei" sheetId="8" r:id="rId2"/>
-    <sheet name="kansou" sheetId="7" r:id="rId3"/>
-    <sheet name="hoi" sheetId="6" r:id="rId4"/>
-    <sheet name="chuumon" sheetId="5" r:id="rId5"/>
-    <sheet name="osusume" sheetId="4" r:id="rId6"/>
-    <sheet name="hello" sheetId="3" r:id="rId7"/>
-    <sheet name="survey2.csv" sheetId="2" r:id="rId8"/>
-    <sheet name="survey.csv" sheetId="1" r:id="rId9"/>
+    <sheet name="memo" sheetId="10" r:id="rId1"/>
+    <sheet name="baibai" sheetId="9" r:id="rId2"/>
+    <sheet name="kaikei" sheetId="8" r:id="rId3"/>
+    <sheet name="kansou" sheetId="7" r:id="rId4"/>
+    <sheet name="hoi" sheetId="6" r:id="rId5"/>
+    <sheet name="chuumon" sheetId="5" r:id="rId6"/>
+    <sheet name="osusume" sheetId="4" r:id="rId7"/>
+    <sheet name="hello" sheetId="3" r:id="rId8"/>
+    <sheet name="survey2.csv" sheetId="2" r:id="rId9"/>
+    <sheet name="survey.csv" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
   <si>
     <t>no</t>
   </si>
@@ -137,16 +138,6 @@
   </si>
   <si>
     <t>いらっしゃいませ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>僕の名前はパペートです。</t>
-    <rPh sb="0" eb="2">
-      <t>ボk</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ナマ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -274,6 +265,20 @@
   </si>
   <si>
     <t>バイバーイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after_wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕の名前は</t>
+    <rPh sb="0" eb="2">
+      <t>ボk</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,6 +554,98 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511300" y="101600"/>
+          <a:ext cx="5588000" cy="3937000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>after_wait: -1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力すると、待ちます。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>dat/restart</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルを作ると動き始めます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,15 +970,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -921,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -933,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -942,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -953,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -984,29 +1100,26 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1017,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1026,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1038,9 +1151,352 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>-1</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>-1</v>
       </c>
     </row>
@@ -1058,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1106,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1138,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1170,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1191,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1202,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1211,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1226,38 +1682,6 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
         <v>-1</v>
       </c>
     </row>
@@ -1275,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1355,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1387,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1418,6 +1842,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -1425,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1448,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1457,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1469,73 +1896,9 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
         <v>-1</v>
       </c>
     </row>
@@ -1553,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1613,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1633,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1648,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1674,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1686,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1696,9 +2059,6 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -1706,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1721,6 +2081,102 @@
         <v>-1</v>
       </c>
       <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
         <v>-1</v>
       </c>
     </row>
@@ -1738,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1817,6 +2273,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -1824,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1847,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1856,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1868,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1879,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1888,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1900,134 +2359,9 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
         <v>-1</v>
       </c>
     </row>
@@ -2045,15 +2379,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2093,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2124,9 +2458,6 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -2134,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2146,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2157,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2189,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2204,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2221,30 +2552,123 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
         <v>-1</v>
       </c>
     </row>
@@ -2265,7 +2689,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2310,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2342,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2374,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2406,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2421,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2438,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2447,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2479,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2516,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -2527,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2548,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2559,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2590,20 +3014,23 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2613,6 +3040,38 @@
       </c>
       <c r="J4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2698,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2763,381 +3222,6 @@
       </c>
       <c r="J4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/senario/senario.xlsx
+++ b/senario/senario.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="memo" sheetId="10" r:id="rId1"/>
-    <sheet name="baibai" sheetId="9" r:id="rId2"/>
-    <sheet name="kaikei" sheetId="8" r:id="rId3"/>
-    <sheet name="kansou" sheetId="7" r:id="rId4"/>
-    <sheet name="hoi" sheetId="6" r:id="rId5"/>
-    <sheet name="chuumon" sheetId="5" r:id="rId6"/>
-    <sheet name="osusume" sheetId="4" r:id="rId7"/>
-    <sheet name="hello" sheetId="3" r:id="rId8"/>
-    <sheet name="survey2.csv" sheetId="2" r:id="rId9"/>
-    <sheet name="survey.csv" sheetId="1" r:id="rId10"/>
+    <sheet name="chuumon.pre" sheetId="11" r:id="rId1"/>
+    <sheet name="memo" sheetId="10" r:id="rId2"/>
+    <sheet name="baibai" sheetId="9" r:id="rId3"/>
+    <sheet name="kaikei" sheetId="8" r:id="rId4"/>
+    <sheet name="kansou" sheetId="7" r:id="rId5"/>
+    <sheet name="hoi" sheetId="6" r:id="rId6"/>
+    <sheet name="chuumon" sheetId="5" r:id="rId7"/>
+    <sheet name="osusume" sheetId="4" r:id="rId8"/>
+    <sheet name="hello" sheetId="3" r:id="rId9"/>
+    <sheet name="survey2.csv" sheetId="2" r:id="rId10"/>
+    <sheet name="survey.csv" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>no</t>
   </si>
@@ -279,6 +280,52 @@
     <rPh sb="2" eb="5">
       <t>ナマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご注文はいかがしますか</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pretext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度、ご注文内容をお願いします。</t>
+    <rPh sb="2" eb="5">
+      <t>イチd</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聞き取れませんでした。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="11">
+      <t>トr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4?8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4?2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -338,8 +385,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +505,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="115">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -498,6 +557,12 @@
     <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -550,6 +615,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -633,7 +704,113 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ファイルを作ると動き始めます。</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ledmode :1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>話す</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しろ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>聞く</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>黄色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・話すときに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>pretext</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を使えます。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>next_node:6?7e   sentiment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の場合には、ポジティブだと前、ネガティブだと、後ろ。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中間の場合も含む</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6&amp;6&amp;7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>という表記も可能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -970,6 +1147,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -987,532 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1697,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -1914,7 +2516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2192,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -2377,12 +2979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2427,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2448,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2459,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2468,19 +3070,19 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2488,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2519,23 +3121,20 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2543,8 +3142,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="J5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2552,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2583,6 +3182,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -2590,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -2613,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2628,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2645,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2654,21 +3256,53 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>-1</v>
       </c>
-      <c r="J9">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>-1</v>
       </c>
     </row>
@@ -2684,7 +3318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -2901,11 +3535,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3072,156 +3706,6 @@
       </c>
       <c r="J5">
         <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/senario/senario.xlsx
+++ b/senario/senario.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chuumon.pre" sheetId="11" r:id="rId1"/>
     <sheet name="memo" sheetId="10" r:id="rId2"/>
     <sheet name="baibai" sheetId="9" r:id="rId3"/>
     <sheet name="kaikei" sheetId="8" r:id="rId4"/>
-    <sheet name="kansou" sheetId="7" r:id="rId5"/>
-    <sheet name="hoi" sheetId="6" r:id="rId6"/>
-    <sheet name="chuumon" sheetId="5" r:id="rId7"/>
-    <sheet name="osusume" sheetId="4" r:id="rId8"/>
-    <sheet name="hello" sheetId="3" r:id="rId9"/>
-    <sheet name="survey2.csv" sheetId="2" r:id="rId10"/>
-    <sheet name="survey.csv" sheetId="1" r:id="rId11"/>
+    <sheet name="kansou.org" sheetId="12" r:id="rId5"/>
+    <sheet name="kansou" sheetId="7" r:id="rId6"/>
+    <sheet name="hoi" sheetId="6" r:id="rId7"/>
+    <sheet name="chuumon" sheetId="5" r:id="rId8"/>
+    <sheet name="osusume" sheetId="4" r:id="rId9"/>
+    <sheet name="hello" sheetId="3" r:id="rId10"/>
+    <sheet name="survey2.csv" sheetId="2" r:id="rId11"/>
+    <sheet name="survey.csv" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
   <si>
     <t>no</t>
   </si>
@@ -213,10 +214,6 @@
     <rPh sb="7" eb="16">
       <t>キk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンバーグセットどうだった。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -261,10 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バイバーイ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,6 +319,49 @@
   </si>
   <si>
     <t>4?2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーグセットどうだった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理はどうだった。</t>
+    <rPh sb="0" eb="3">
+      <t>リョウr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3?4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それはすみませんでした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェフに伝えておくよ。</t>
+    <rPh sb="4" eb="11">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでは、僕を持って、レジへお進みください。</t>
+    <rPh sb="5" eb="6">
+      <t>ボk</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モッt</t>
+    </rPh>
+    <rPh sb="15" eb="22">
+      <t>ススm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body_mode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -385,8 +421,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +555,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="129">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -563,6 +613,13 @@
     <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -621,6 +678,13 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1422,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1459,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1470,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1491,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1502,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1533,20 +1597,23 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1556,6 +1623,38 @@
       </c>
       <c r="J4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1572,10 +1671,160 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2116,9 +2365,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2127,7 +2376,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2150,21 +2399,24 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2176,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2185,18 +2437,21 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2214,22 +2469,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -2237,53 +2492,24 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>-1</v>
       </c>
     </row>
@@ -2381,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2413,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2445,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2520,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2598,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2691,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2723,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2796,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2807,7 +3033,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2830,21 +3056,24 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2865,18 +3094,21 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2891,56 +3123,59 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2949,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2961,9 +3196,117 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>-1</v>
       </c>
     </row>
@@ -2981,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3029,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3050,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3060,17 +3403,20 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3079,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3090,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3099,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3111,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -3121,188 +3467,31 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="J5">
         <v>-1</v>
       </c>
     </row>
@@ -3320,15 +3509,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3368,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3389,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3399,23 +3588,20 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3423,8 +3609,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3432,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3463,20 +3649,17 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3485,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3496,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3505,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3520,6 +3703,134 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>-1</v>
       </c>
     </row>
@@ -3537,10 +3848,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3574,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -3585,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3606,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3617,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3649,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3681,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3702,9 +4013,41 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>-1</v>
       </c>
     </row>

--- a/senario/senario.xlsx
+++ b/senario/senario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="chuumon.pre" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>no</t>
   </si>
@@ -326,13 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料理はどうだった。</t>
-    <rPh sb="0" eb="3">
-      <t>リョウr</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3?4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,6 +350,17 @@
     </rPh>
     <rPh sb="15" eb="22">
       <t>ススm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body_mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お料理はいかがでした?</t>
+    <rPh sb="1" eb="4">
+      <t>リョウr</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -421,8 +425,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -555,7 +563,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="133">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -620,6 +628,8 @@
     <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -685,6 +695,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1486,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1497,7 +1509,7 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,16 +1532,19 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1558,10 +1573,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1590,10 +1608,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1622,10 +1643,13 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1654,6 +1678,41 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>-1</v>
       </c>
     </row>
@@ -1829,7 +1888,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2367,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2399,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -3025,7 +3084,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3056,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -3073,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3167,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3210,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3245,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3280,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3511,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
